--- a/samples.xlsx
+++ b/samples.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wbjc/Documents/Pd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wbjc/Documents/Jakki_Dokumente/RSP/RSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61E0FDD0-BB99-D343-BD4B-2781FB990037}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC0BE20-823D-0645-8F94-4DBCB86CBCFF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="960" windowWidth="24540" windowHeight="14480" xr2:uid="{81A564ED-142B-1042-A2BF-5115AA96036F}"/>
+    <workbookView xWindow="180" yWindow="820" windowWidth="19860" windowHeight="14200" xr2:uid="{81A564ED-142B-1042-A2BF-5115AA96036F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>sample_id</t>
   </si>
@@ -253,6 +253,39 @@
   </si>
   <si>
     <t>S3PM_kickybass</t>
+  </si>
+  <si>
+    <t>HUC_squeez</t>
+  </si>
+  <si>
+    <t>HUC_squeez2</t>
+  </si>
+  <si>
+    <t>EGBA_kickles</t>
+  </si>
+  <si>
+    <t>S3PM_kickakzent</t>
+  </si>
+  <si>
+    <t>S3PM_kickakzent2</t>
+  </si>
+  <si>
+    <t>EGBA_softkick</t>
+  </si>
+  <si>
+    <t>DD_kiks0</t>
+  </si>
+  <si>
+    <t>DD_kiks1</t>
+  </si>
+  <si>
+    <t>DD_kiks2</t>
+  </si>
+  <si>
+    <t>DD_kiks3</t>
+  </si>
+  <si>
+    <t>JDP_kicky</t>
   </si>
 </sst>
 </file>
@@ -311,10 +344,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -629,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041B07-5971-A445-8E8D-98CE1835DD54}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B75"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,6 +1275,94 @@
         <v>75</v>
       </c>
     </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wbjc/Documents/Jakki_Dokumente/RSP/RSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC0BE20-823D-0645-8F94-4DBCB86CBCFF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE54EDF-5542-DE4B-AF38-F0021EB8DD04}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="820" windowWidth="19860" windowHeight="14200" xr2:uid="{81A564ED-142B-1042-A2BF-5115AA96036F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>sample_id</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t>JDP_kicky</t>
+  </si>
+  <si>
+    <t>kickle</t>
+  </si>
+  <si>
+    <t>SEA_subkick</t>
+  </si>
+  <si>
+    <t>SEA_subkick2</t>
   </si>
 </sst>
 </file>
@@ -663,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041B07-5971-A445-8E8D-98CE1835DD54}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1363,6 +1372,30 @@
         <v>86</v>
       </c>
     </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wbjc/Documents/Jakki_Dokumente/RSP/RSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE54EDF-5542-DE4B-AF38-F0021EB8DD04}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4210EB61-551C-2C46-8027-7F663084EABF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="820" windowWidth="19860" windowHeight="14200" xr2:uid="{81A564ED-142B-1042-A2BF-5115AA96036F}"/>
+    <workbookView xWindow="40" yWindow="480" windowWidth="19860" windowHeight="14200" xr2:uid="{81A564ED-142B-1042-A2BF-5115AA96036F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>sample_id</t>
   </si>
@@ -295,6 +295,357 @@
   </si>
   <si>
     <t>SEA_subkick2</t>
+  </si>
+  <si>
+    <t>bassjump6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>HUC_brush</t>
+  </si>
+  <si>
+    <t>DYNA_paraperc</t>
+  </si>
+  <si>
+    <t>perc1</t>
+  </si>
+  <si>
+    <t>perc2</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>tomfills</t>
+  </si>
+  <si>
+    <t>hoehenweird1</t>
+  </si>
+  <si>
+    <t>hoehenweird2</t>
+  </si>
+  <si>
+    <t>HAEKJER_acc</t>
+  </si>
+  <si>
+    <t>ghostnotes</t>
+  </si>
+  <si>
+    <t>HUC_knack</t>
+  </si>
+  <si>
+    <t>HUC_ratzeln</t>
+  </si>
+  <si>
+    <t>HUC_ratzeln2</t>
+  </si>
+  <si>
+    <t>kassenzeug</t>
+  </si>
+  <si>
+    <t>kassenzeug2</t>
+  </si>
+  <si>
+    <t>YAR_walkinghh1</t>
+  </si>
+  <si>
+    <t>YAR_walkinghh2</t>
+  </si>
+  <si>
+    <t>YAR_shufflehh1</t>
+  </si>
+  <si>
+    <t>YAR_shufflehh2</t>
+  </si>
+  <si>
+    <t>YAR_shufflehh3</t>
+  </si>
+  <si>
+    <t>YAR_shufflehh4</t>
+  </si>
+  <si>
+    <t>YAR_shufflehh5</t>
+  </si>
+  <si>
+    <t>YAR_shufflehh6</t>
+  </si>
+  <si>
+    <t>YAR_shufflehh7</t>
+  </si>
+  <si>
+    <t>YAR_shufflehh8</t>
+  </si>
+  <si>
+    <t>YAR_hh</t>
+  </si>
+  <si>
+    <t>EGBA_hhs</t>
+  </si>
+  <si>
+    <t>EGBA_hhs2</t>
+  </si>
+  <si>
+    <t>EGBA_snares</t>
+  </si>
+  <si>
+    <t>EGBA_clave</t>
+  </si>
+  <si>
+    <t>DNH2_schgroovemk</t>
+  </si>
+  <si>
+    <t>DNH2_openhh2</t>
+  </si>
+  <si>
+    <t>DNH2_hhoff</t>
+  </si>
+  <si>
+    <t>J124_vocshake</t>
+  </si>
+  <si>
+    <t>J124_vocshake2</t>
+  </si>
+  <si>
+    <t>J124_softlik</t>
+  </si>
+  <si>
+    <t>SEA_spitzhhs1</t>
+  </si>
+  <si>
+    <t>SEA_spitzhhs2</t>
+  </si>
+  <si>
+    <t>SEA_spitzhhs3</t>
+  </si>
+  <si>
+    <t>SEA_spitzhhs4</t>
+  </si>
+  <si>
+    <t>SEA_spitzhhs5</t>
+  </si>
+  <si>
+    <t>SEA_spitzhhs6</t>
+  </si>
+  <si>
+    <t>SEA_spitzhhs7</t>
+  </si>
+  <si>
+    <t>SEA_spitzhhs8</t>
+  </si>
+  <si>
+    <t>SEA_spitzhhs9</t>
+  </si>
+  <si>
+    <t>SEA_spitzhhs10</t>
+  </si>
+  <si>
+    <t>SEA_hhoff1</t>
+  </si>
+  <si>
+    <t>SEA_hhoff2</t>
+  </si>
+  <si>
+    <t>SEA_hhoff3</t>
+  </si>
+  <si>
+    <t>SEA_hhoff4</t>
+  </si>
+  <si>
+    <t>SEA_hhoff5</t>
+  </si>
+  <si>
+    <t>SEA_hhhard</t>
+  </si>
+  <si>
+    <t>SEA_toneperc1</t>
+  </si>
+  <si>
+    <t>SEA_toneperc2</t>
+  </si>
+  <si>
+    <t>SEA_toneperc3</t>
+  </si>
+  <si>
+    <t>SEA_perc1</t>
+  </si>
+  <si>
+    <t>SEA_perc2</t>
+  </si>
+  <si>
+    <t>SEA_clack</t>
+  </si>
+  <si>
+    <t>SEA_clack2</t>
+  </si>
+  <si>
+    <t>SEA_harmstep</t>
+  </si>
+  <si>
+    <t>whitenoisevorne1</t>
+  </si>
+  <si>
+    <t>whitenoisevorne2</t>
+  </si>
+  <si>
+    <t>whitenoisevorne3</t>
+  </si>
+  <si>
+    <t>afroclap</t>
+  </si>
+  <si>
+    <t>DD_hhoff1</t>
+  </si>
+  <si>
+    <t>DD_hhoff2</t>
+  </si>
+  <si>
+    <t>DD_wanderhh</t>
+  </si>
+  <si>
+    <t>DD_robot1</t>
+  </si>
+  <si>
+    <t>DD_robot2</t>
+  </si>
+  <si>
+    <t>DD_vocbalu</t>
+  </si>
+  <si>
+    <t>swirlhh</t>
+  </si>
+  <si>
+    <t>galopp</t>
+  </si>
+  <si>
+    <t>S3PM_knistern</t>
+  </si>
+  <si>
+    <t>vocdaesch</t>
+  </si>
+  <si>
+    <t>JDP_klackern2</t>
+  </si>
+  <si>
+    <t>draussen</t>
+  </si>
+  <si>
+    <t>atmen</t>
+  </si>
+  <si>
+    <t>spherehh</t>
+  </si>
+  <si>
+    <t>JDP_klackern1</t>
+  </si>
+  <si>
+    <t>pupuhh1</t>
+  </si>
+  <si>
+    <t>pupuhh2</t>
+  </si>
+  <si>
+    <t>pupuhh3</t>
+  </si>
+  <si>
+    <t>EASY_snare</t>
+  </si>
+  <si>
+    <t>CCFR_hh1</t>
+  </si>
+  <si>
+    <t>CCFR_hh2</t>
+  </si>
+  <si>
+    <t>YAR_hhoff</t>
+  </si>
+  <si>
+    <t>DX7_perc1</t>
+  </si>
+  <si>
+    <t>DX7_perc2</t>
+  </si>
+  <si>
+    <t>TEENS_shaker</t>
+  </si>
+  <si>
+    <t>DD_jazzhh</t>
+  </si>
+  <si>
+    <t>SKUNK_softsnare</t>
+  </si>
+  <si>
+    <t>CLAIRE_pukai1</t>
+  </si>
+  <si>
+    <t>CLAIRE_pukai2</t>
+  </si>
+  <si>
+    <t>CLAIRE_hh1</t>
+  </si>
+  <si>
+    <t>CLAIRE_hh2</t>
+  </si>
+  <si>
+    <t>CLAIRE_pukaihh1</t>
+  </si>
+  <si>
+    <t>CLAIRE_pukaihh2</t>
+  </si>
+  <si>
+    <t>SKUNK_brush</t>
+  </si>
+  <si>
+    <t>MIGAWK_openhh</t>
+  </si>
+  <si>
+    <t>pupushake</t>
+  </si>
+  <si>
+    <t>JERTAW_hh1</t>
+  </si>
+  <si>
+    <t>JERTAW_hh2</t>
+  </si>
+  <si>
+    <t>DYNA_glidinhh</t>
+  </si>
+  <si>
+    <t>DYNA_glidinhh2</t>
+  </si>
+  <si>
+    <t>clapwhitenoise</t>
+  </si>
+  <si>
+    <t>whitenoisehinten</t>
+  </si>
+  <si>
+    <t>hhlinks</t>
+  </si>
+  <si>
+    <t>hhrechts</t>
+  </si>
+  <si>
+    <t>DNH2_openhh3</t>
+  </si>
+  <si>
+    <t>DNH2_openhh1</t>
+  </si>
+  <si>
+    <t>DYNA_pingponghh</t>
+  </si>
+  <si>
+    <t>DYNA_groovehh1</t>
+  </si>
+  <si>
+    <t>DYNA_groovehh2</t>
+  </si>
+  <si>
+    <t>DX7_kalimba</t>
+  </si>
+  <si>
+    <t>JDP_walkinghh</t>
   </si>
 </sst>
 </file>
@@ -326,7 +677,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -349,15 +700,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -672,16 +1035,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041B07-5971-A445-8E8D-98CE1835DD54}">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
@@ -1324,7 +1688,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -1332,7 +1696,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -1340,7 +1704,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -1348,7 +1712,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -1356,15 +1720,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -1372,7 +1739,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -1380,7 +1747,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -1388,12 +1755,955 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="4">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="4">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="4">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="4">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="4">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="4">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="4">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="4">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="4">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="4">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="4">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="4">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="4">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="4">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="4">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="4">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="4">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="4">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="4">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="4">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="4">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="4">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="4">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="4">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="4">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="4">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="4">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="4">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="4">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="4">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="4">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wbjc/Documents/Jakki_Dokumente/RSP/RSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4210EB61-551C-2C46-8027-7F663084EABF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1327485-A596-7548-9303-732BAE035554}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="480" windowWidth="19860" windowHeight="14200" xr2:uid="{81A564ED-142B-1042-A2BF-5115AA96036F}"/>
+    <workbookView xWindow="4460" yWindow="460" windowWidth="19860" windowHeight="14200" xr2:uid="{81A564ED-142B-1042-A2BF-5115AA96036F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t>sample_id</t>
   </si>
@@ -315,9 +315,6 @@
     <t>perc2</t>
   </si>
   <si>
-    <t>aa</t>
-  </si>
-  <si>
     <t>tomfills</t>
   </si>
   <si>
@@ -646,13 +643,88 @@
   </si>
   <si>
     <t>JDP_walkinghh</t>
+  </si>
+  <si>
+    <t>UTPA_carrier1</t>
+  </si>
+  <si>
+    <t>UTPA_carrier2</t>
+  </si>
+  <si>
+    <t>UTPA_carrier3</t>
+  </si>
+  <si>
+    <t>UHG_groovepad</t>
+  </si>
+  <si>
+    <t>DDREI_carrier</t>
+  </si>
+  <si>
+    <t>FH_guitar</t>
+  </si>
+  <si>
+    <t>UHG_jumpy</t>
+  </si>
+  <si>
+    <t>vibrafillgroup</t>
+  </si>
+  <si>
+    <t>WOLVE_pad1</t>
+  </si>
+  <si>
+    <t>WOLVE_pad2</t>
+  </si>
+  <si>
+    <t>WOLVE_pad3</t>
+  </si>
+  <si>
+    <t>WOLVE_pad4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pad intro 4 =REMAINING P=PadHighbeide_Padlanglow beide_ORCAgitte1 gitte2 gitte 4 gitte 5_UHGSinglewalky </t>
+  </si>
+  <si>
+    <t>WOLVE_pad5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pad intro 5 =alle wie pad intro 4_REMAINING P=PadHighbeide_Padlanglow beide_ORCAgitte1 gitte2 gitte 4 gitte 5_UHGSinglewalky </t>
+  </si>
+  <si>
+    <t>WOLVE_pad6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pad intro 6_=REMAINING P=orca gitte2 gitte 4 </t>
+  </si>
+  <si>
+    <t>TK_keysbreak</t>
+  </si>
+  <si>
+    <t>pad1</t>
+  </si>
+  <si>
+    <t>pad2</t>
+  </si>
+  <si>
+    <t>pad3</t>
+  </si>
+  <si>
+    <t>pad4</t>
+  </si>
+  <si>
+    <t>ORCA_gitte1</t>
+  </si>
+  <si>
+    <t>ORCA_gitte2</t>
+  </si>
+  <si>
+    <t>orca gitte2_P=SEAtoneperc1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -664,6 +736,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -715,12 +794,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1035,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041B07-5971-A445-8E8D-98CE1835DD54}">
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1802,16 +1882,13 @@
       <c r="B94" t="s">
         <v>95</v>
       </c>
-      <c r="C94" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -1819,7 +1896,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1827,7 +1904,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1835,7 +1912,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1843,7 +1920,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1851,7 +1928,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1859,7 +1936,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1867,7 +1944,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1875,7 +1952,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1883,7 +1960,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1891,7 +1968,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1899,7 +1976,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1907,7 +1984,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1915,7 +1992,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1923,7 +2000,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1931,7 +2008,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1939,7 +2016,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1947,7 +2024,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1955,7 +2032,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1963,7 +2040,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1971,7 +2048,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1979,7 +2056,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1987,7 +2064,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1995,7 +2072,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -2003,7 +2080,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -2011,7 +2088,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -2019,7 +2096,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -2027,7 +2104,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -2035,7 +2112,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -2043,7 +2120,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -2051,7 +2128,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -2059,7 +2136,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -2067,7 +2144,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -2075,7 +2152,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -2083,7 +2160,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -2091,7 +2168,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -2099,7 +2176,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -2107,7 +2184,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -2115,7 +2192,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -2123,7 +2200,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -2131,7 +2208,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -2139,7 +2216,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -2147,7 +2224,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -2155,7 +2232,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -2163,7 +2240,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -2171,7 +2248,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -2179,7 +2256,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -2187,7 +2264,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2195,7 +2272,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2203,7 +2280,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -2211,7 +2288,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -2219,7 +2296,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -2227,7 +2304,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -2235,7 +2312,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -2243,7 +2320,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2251,7 +2328,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -2259,7 +2336,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -2267,7 +2344,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -2275,7 +2352,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -2283,7 +2360,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -2291,7 +2368,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -2299,7 +2376,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -2307,7 +2384,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -2315,7 +2392,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -2323,7 +2400,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -2331,7 +2408,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -2339,7 +2416,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -2347,7 +2424,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -2355,7 +2432,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -2363,7 +2440,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -2371,7 +2448,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -2379,7 +2456,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -2387,7 +2464,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -2395,7 +2472,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -2403,7 +2480,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -2411,7 +2488,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -2419,7 +2496,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -2427,7 +2504,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -2435,7 +2512,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -2443,7 +2520,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -2451,7 +2528,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -2459,7 +2536,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -2467,7 +2544,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -2475,7 +2552,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -2483,7 +2560,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -2491,7 +2568,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -2499,7 +2576,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -2507,7 +2584,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -2515,7 +2592,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -2523,7 +2600,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -2531,7 +2608,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -2539,7 +2616,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -2547,7 +2624,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -2555,7 +2632,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -2563,7 +2640,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -2571,7 +2648,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -2579,7 +2656,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -2587,7 +2664,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -2595,7 +2672,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -2603,7 +2680,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -2611,7 +2688,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -2619,7 +2696,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -2627,7 +2704,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -2635,7 +2712,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -2643,7 +2720,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -2651,7 +2728,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -2659,7 +2736,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -2667,7 +2744,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -2675,7 +2752,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -2683,30 +2760,301 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>204</v>
       </c>
+      <c r="B205" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>205</v>
       </c>
+      <c r="B206" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>206</v>
       </c>
+      <c r="B207" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>207</v>
       </c>
+      <c r="B208" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="4">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="4">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="4">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="4">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="4">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="4">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="4">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="4">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>217</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="4">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>219</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="4">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>221</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="4">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="4">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="4">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="4">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="4">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="4">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="4">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>229</v>
+      </c>
+      <c r="C225" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="4">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/samples.xlsx
+++ b/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wbjc/Documents/Jakki_Dokumente/RSP/RSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1327485-A596-7548-9303-732BAE035554}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59E5DBE-794F-184E-8A23-2BBE0365B625}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="460" windowWidth="19860" windowHeight="14200" xr2:uid="{81A564ED-142B-1042-A2BF-5115AA96036F}"/>
+    <workbookView xWindow="4880" yWindow="460" windowWidth="19860" windowHeight="14200" xr2:uid="{81A564ED-142B-1042-A2BF-5115AA96036F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="308">
   <si>
     <t>sample_id</t>
   </si>
@@ -681,21 +681,12 @@
     <t>WOLVE_pad4</t>
   </si>
   <si>
-    <t xml:space="preserve">pad intro 4 =REMAINING P=PadHighbeide_Padlanglow beide_ORCAgitte1 gitte2 gitte 4 gitte 5_UHGSinglewalky </t>
-  </si>
-  <si>
     <t>WOLVE_pad5</t>
   </si>
   <si>
-    <t xml:space="preserve">pad intro 5 =alle wie pad intro 4_REMAINING P=PadHighbeide_Padlanglow beide_ORCAgitte1 gitte2 gitte 4 gitte 5_UHGSinglewalky </t>
-  </si>
-  <si>
     <t>WOLVE_pad6</t>
   </si>
   <si>
-    <t xml:space="preserve">pad intro 6_=REMAINING P=orca gitte2 gitte 4 </t>
-  </si>
-  <si>
     <t>TK_keysbreak</t>
   </si>
   <si>
@@ -717,14 +708,254 @@
     <t>ORCA_gitte2</t>
   </si>
   <si>
-    <t>orca gitte2_P=SEAtoneperc1</t>
+    <t>ORCA_gitte3</t>
+  </si>
+  <si>
+    <t>ORCA_gitte4</t>
+  </si>
+  <si>
+    <t>ORCA_gitte5</t>
+  </si>
+  <si>
+    <t>UHG_singlewalky</t>
+  </si>
+  <si>
+    <t>HUC_bellswarm</t>
+  </si>
+  <si>
+    <t>S3PM_walky2</t>
+  </si>
+  <si>
+    <t>S3PM_walky3</t>
+  </si>
+  <si>
+    <t>JDP_reso</t>
+  </si>
+  <si>
+    <t>JDP_reso2</t>
+  </si>
+  <si>
+    <t>DYNA_fieldambient</t>
+  </si>
+  <si>
+    <t>DYNA_fieldambient2</t>
+  </si>
+  <si>
+    <t>klimper</t>
+  </si>
+  <si>
+    <t>wander</t>
+  </si>
+  <si>
+    <t>MERLIN</t>
+  </si>
+  <si>
+    <t>DNH2_pad</t>
+  </si>
+  <si>
+    <t>DNH2_pad2</t>
+  </si>
+  <si>
+    <t>DNH2_pad3</t>
+  </si>
+  <si>
+    <t>DNH2_pad4</t>
+  </si>
+  <si>
+    <t>DNH2_staccato</t>
+  </si>
+  <si>
+    <t>YAR_keysanswer</t>
+  </si>
+  <si>
+    <t>svenneyaucut</t>
+  </si>
+  <si>
+    <t>svenneyaucut2</t>
+  </si>
+  <si>
+    <t>DX7_smoothpad</t>
+  </si>
+  <si>
+    <t>YAR_basseydiddle</t>
+  </si>
+  <si>
+    <t>ESY_stutter</t>
+  </si>
+  <si>
+    <t>kreisch&amp;ooeelight</t>
+  </si>
+  <si>
+    <t>DITC_bass</t>
+  </si>
+  <si>
+    <t>bassakzent3</t>
+  </si>
+  <si>
+    <t>bassakzent4</t>
+  </si>
+  <si>
+    <t>UHG_walkybass</t>
+  </si>
+  <si>
+    <t>S3PM_verylightbass</t>
+  </si>
+  <si>
+    <t>vallikicksoftstraight</t>
+  </si>
+  <si>
+    <t>spacekickle</t>
+  </si>
+  <si>
+    <t>JDP_kicky2</t>
+  </si>
+  <si>
+    <t>JDP_kicky3</t>
+  </si>
+  <si>
+    <t>JDP_kicky4</t>
+  </si>
+  <si>
+    <t>JDP_kicky5</t>
+  </si>
+  <si>
+    <t>JDP_kicky6</t>
+  </si>
+  <si>
+    <t>JDP_kicky7</t>
+  </si>
+  <si>
+    <t>DYNA_kicks0</t>
+  </si>
+  <si>
+    <t>DYNA_kicks1</t>
+  </si>
+  <si>
+    <t>DYNA_kicks2</t>
+  </si>
+  <si>
+    <t>DYNA_kicks3</t>
+  </si>
+  <si>
+    <t>DYNA_kicks4</t>
+  </si>
+  <si>
+    <t>DYNA_kicks5</t>
+  </si>
+  <si>
+    <t>DYNA_kicks6</t>
+  </si>
+  <si>
+    <t>DYNA_kicks7</t>
+  </si>
+  <si>
+    <t>DYNA_kicks8</t>
+  </si>
+  <si>
+    <t>DYNA_kicks9</t>
+  </si>
+  <si>
+    <t>SKUNK_softkick</t>
+  </si>
+  <si>
+    <t>SKUNK_bossakick</t>
+  </si>
+  <si>
+    <t>S3PM_durchkick</t>
+  </si>
+  <si>
+    <t>SHEAR_shakerrise</t>
+  </si>
+  <si>
+    <t>DNH2_groovemkr</t>
+  </si>
+  <si>
+    <t>spacedrums</t>
+  </si>
+  <si>
+    <t>VGB_offclap</t>
+  </si>
+  <si>
+    <t>TEENS_shaker2</t>
+  </si>
+  <si>
+    <t>JDP_streichhh</t>
+  </si>
+  <si>
+    <t>ghostnotes2</t>
+  </si>
+  <si>
+    <t>ghostnotes3</t>
+  </si>
+  <si>
+    <t>atmen2</t>
+  </si>
+  <si>
+    <t>STAND_marlon</t>
+  </si>
+  <si>
+    <t>STAND_marlon&amp;jaggi</t>
+  </si>
+  <si>
+    <t>UHG_hhneww</t>
+  </si>
+  <si>
+    <t>UHG_hhneww2</t>
+  </si>
+  <si>
+    <t>reiswassershake</t>
+  </si>
+  <si>
+    <t>shelltock</t>
+  </si>
+  <si>
+    <t>UHG_hhopen</t>
+  </si>
+  <si>
+    <t>S3PM_hhslight</t>
+  </si>
+  <si>
+    <t>S3PM_hhslight2</t>
+  </si>
+  <si>
+    <t>S3PM_hhnoisy</t>
+  </si>
+  <si>
+    <t>S3PM_hhoff</t>
+  </si>
+  <si>
+    <t>lighthh</t>
+  </si>
+  <si>
+    <t>DYNA_ghostnotes</t>
+  </si>
+  <si>
+    <t>DYNA_hhs&amp;snares1</t>
+  </si>
+  <si>
+    <t>DYNA_hhs&amp;snares2</t>
+  </si>
+  <si>
+    <t>DYNA_hhs&amp;snares3</t>
+  </si>
+  <si>
+    <t>DYNA_hhs&amp;snares4</t>
+  </si>
+  <si>
+    <t>DYNA_hhs&amp;snares5</t>
+  </si>
+  <si>
+    <t>DYNA_hhs&amp;snares6</t>
+  </si>
+  <si>
+    <t>DYNA_hhs&amp;snares7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -747,6 +978,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Textkörper)_x0000_"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -756,7 +999,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -779,28 +1022,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1115,20 +1350,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98041B07-5971-A445-8E8D-98CE1835DD54}">
-  <dimension ref="A1:G247"/>
+  <dimension ref="A1:G313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="90.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1144,7 +1379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1152,7 +1387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1160,7 +1395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1168,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1176,7 +1411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1184,7 +1419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1192,7 +1427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1200,7 +1435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1208,7 +1443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1216,7 +1451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1224,7 +1459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1232,7 +1467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1240,7 +1475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1248,7 +1483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1256,7 +1491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1264,7 +1499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1272,7 +1507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1280,7 +1515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1288,7 +1523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1296,7 +1531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1304,7 +1539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1312,7 +1547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1320,7 +1555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1328,7 +1563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1336,7 +1571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1344,7 +1579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1352,7 +1587,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1360,7 +1595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1368,7 +1603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1376,7 +1611,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1384,7 +1619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1392,7 +1627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1400,7 +1635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1408,7 +1643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1416,7 +1651,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1424,7 +1659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1432,7 +1667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1440,7 +1675,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1448,7 +1683,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1456,7 +1691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1464,7 +1699,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1472,7 +1707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1480,7 +1715,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1488,7 +1723,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1496,7 +1731,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1504,7 +1739,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1512,7 +1747,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1520,7 +1755,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1528,7 +1763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1536,7 +1771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1544,7 +1779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1552,7 +1787,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1560,7 +1795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1568,7 +1803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1576,7 +1811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1584,7 +1819,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1592,7 +1827,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1600,7 +1835,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1608,7 +1843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1616,7 +1851,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1624,7 +1859,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1632,7 +1867,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -1640,7 +1875,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -1648,7 +1883,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -1656,7 +1891,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -1664,7 +1899,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -1672,7 +1907,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -1680,7 +1915,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -1688,7 +1923,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -1696,7 +1931,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1704,7 +1939,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -1712,7 +1947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -1720,7 +1955,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -1728,7 +1963,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -1736,7 +1971,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -1744,7 +1979,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -1752,7 +1987,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -1760,7 +1995,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -1768,7 +2003,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -1776,7 +2011,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -1784,7 +2019,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -1792,7 +2027,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -1800,7 +2035,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -1811,7 +2046,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -1819,7 +2054,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -1827,7 +2062,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -1835,7 +2070,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -1843,1215 +2078,1779 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
+    <row r="90" spans="1:7">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
+    <row r="91" spans="1:7">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
+    <row r="92" spans="1:7">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
+    <row r="93" spans="1:7">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
+    <row r="94" spans="1:7">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
+    <row r="95" spans="1:7">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
+    <row r="96" spans="1:7">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
+    <row r="97" spans="1:2">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
+    <row r="98" spans="1:2">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
+    <row r="99" spans="1:2">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
+    <row r="100" spans="1:2">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
+    <row r="101" spans="1:2">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
+    <row r="102" spans="1:2">
+      <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
+    <row r="103" spans="1:2">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
+    <row r="104" spans="1:2">
+      <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
+    <row r="105" spans="1:2">
+      <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
+    <row r="106" spans="1:2">
+      <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
+    <row r="107" spans="1:2">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
+    <row r="108" spans="1:2">
+      <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
+    <row r="109" spans="1:2">
+      <c r="A109" s="3">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
+    <row r="110" spans="1:2">
+      <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+    <row r="111" spans="1:2">
+      <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+    <row r="112" spans="1:2">
+      <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
+    <row r="113" spans="1:2">
+      <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
+    <row r="114" spans="1:2">
+      <c r="A114" s="3">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
+    <row r="115" spans="1:2">
+      <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
+    <row r="116" spans="1:2">
+      <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
+    <row r="117" spans="1:2">
+      <c r="A117" s="3">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
+    <row r="118" spans="1:2">
+      <c r="A118" s="3">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
+    <row r="119" spans="1:2">
+      <c r="A119" s="3">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
+    <row r="120" spans="1:2">
+      <c r="A120" s="3">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
+    <row r="121" spans="1:2">
+      <c r="A121" s="3">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
+    <row r="122" spans="1:2">
+      <c r="A122" s="3">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
+    <row r="123" spans="1:2">
+      <c r="A123" s="3">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
+    <row r="124" spans="1:2">
+      <c r="A124" s="3">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
+    <row r="125" spans="1:2">
+      <c r="A125" s="3">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
+    <row r="126" spans="1:2">
+      <c r="A126" s="3">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
+    <row r="127" spans="1:2">
+      <c r="A127" s="3">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
+    <row r="128" spans="1:2">
+      <c r="A128" s="3">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
+    <row r="129" spans="1:2">
+      <c r="A129" s="3">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
+    <row r="130" spans="1:2">
+      <c r="A130" s="3">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
+    <row r="131" spans="1:2">
+      <c r="A131" s="3">
         <v>130</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
+    <row r="132" spans="1:2">
+      <c r="A132" s="3">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
+    <row r="133" spans="1:2">
+      <c r="A133" s="3">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
+    <row r="134" spans="1:2">
+      <c r="A134" s="3">
         <v>133</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
+    <row r="135" spans="1:2">
+      <c r="A135" s="3">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
+    <row r="136" spans="1:2">
+      <c r="A136" s="3">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
+    <row r="137" spans="1:2">
+      <c r="A137" s="3">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
+    <row r="138" spans="1:2">
+      <c r="A138" s="3">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
+    <row r="139" spans="1:2">
+      <c r="A139" s="3">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
+    <row r="140" spans="1:2">
+      <c r="A140" s="3">
         <v>139</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
+    <row r="141" spans="1:2">
+      <c r="A141" s="3">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
+    <row r="142" spans="1:2">
+      <c r="A142" s="3">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
+    <row r="143" spans="1:2">
+      <c r="A143" s="3">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
+    <row r="144" spans="1:2">
+      <c r="A144" s="3">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
+    <row r="145" spans="1:2">
+      <c r="A145" s="3">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
+    <row r="146" spans="1:2">
+      <c r="A146" s="3">
         <v>145</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
+    <row r="147" spans="1:2">
+      <c r="A147" s="3">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
+    <row r="148" spans="1:2">
+      <c r="A148" s="3">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
+    <row r="149" spans="1:2">
+      <c r="A149" s="3">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
+    <row r="150" spans="1:2">
+      <c r="A150" s="3">
         <v>149</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
+    <row r="151" spans="1:2">
+      <c r="A151" s="3">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
+    <row r="152" spans="1:2">
+      <c r="A152" s="3">
         <v>151</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
+    <row r="153" spans="1:2">
+      <c r="A153" s="3">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="4">
+    <row r="154" spans="1:2">
+      <c r="A154" s="3">
         <v>153</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
+    <row r="155" spans="1:2">
+      <c r="A155" s="3">
         <v>154</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="4">
+    <row r="156" spans="1:2">
+      <c r="A156" s="3">
         <v>155</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="4">
+    <row r="157" spans="1:2">
+      <c r="A157" s="3">
         <v>156</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
+    <row r="158" spans="1:2">
+      <c r="A158" s="3">
         <v>157</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
+    <row r="159" spans="1:2">
+      <c r="A159" s="3">
         <v>158</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="4">
+    <row r="160" spans="1:2">
+      <c r="A160" s="3">
         <v>159</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="4">
+    <row r="161" spans="1:2">
+      <c r="A161" s="3">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="4">
+    <row r="162" spans="1:2">
+      <c r="A162" s="3">
         <v>161</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="4">
+    <row r="163" spans="1:2">
+      <c r="A163" s="3">
         <v>162</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="4">
+    <row r="164" spans="1:2">
+      <c r="A164" s="3">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="4">
+    <row r="165" spans="1:2">
+      <c r="A165" s="3">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="4">
+    <row r="166" spans="1:2">
+      <c r="A166" s="3">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="4">
+    <row r="167" spans="1:2">
+      <c r="A167" s="3">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="4">
+    <row r="168" spans="1:2">
+      <c r="A168" s="3">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="4">
+    <row r="169" spans="1:2">
+      <c r="A169" s="3">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="4">
+    <row r="170" spans="1:2">
+      <c r="A170" s="3">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="4">
+    <row r="171" spans="1:2">
+      <c r="A171" s="3">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="4">
+    <row r="172" spans="1:2">
+      <c r="A172" s="3">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="4">
+    <row r="173" spans="1:2">
+      <c r="A173" s="3">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="4">
+    <row r="174" spans="1:2">
+      <c r="A174" s="3">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="4">
+    <row r="175" spans="1:2">
+      <c r="A175" s="3">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="4">
+    <row r="176" spans="1:2">
+      <c r="A176" s="3">
         <v>175</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="4">
+    <row r="177" spans="1:2">
+      <c r="A177" s="3">
         <v>176</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="4">
+    <row r="178" spans="1:2">
+      <c r="A178" s="3">
         <v>177</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="4">
+    <row r="179" spans="1:2">
+      <c r="A179" s="3">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="4">
+    <row r="180" spans="1:2">
+      <c r="A180" s="3">
         <v>179</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="4">
+    <row r="181" spans="1:2">
+      <c r="A181" s="3">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="4">
+    <row r="182" spans="1:2">
+      <c r="A182" s="3">
         <v>181</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="4">
+    <row r="183" spans="1:2">
+      <c r="A183" s="3">
         <v>182</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="4">
+    <row r="184" spans="1:2">
+      <c r="A184" s="3">
         <v>183</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="4">
+    <row r="185" spans="1:2">
+      <c r="A185" s="3">
         <v>184</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="4">
+    <row r="186" spans="1:2">
+      <c r="A186" s="3">
         <v>185</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="4">
+    <row r="187" spans="1:2">
+      <c r="A187" s="3">
         <v>186</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="4">
+    <row r="188" spans="1:2">
+      <c r="A188" s="3">
         <v>187</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="4">
+    <row r="189" spans="1:2">
+      <c r="A189" s="3">
         <v>188</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="4">
+    <row r="190" spans="1:2">
+      <c r="A190" s="3">
         <v>189</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="4">
+    <row r="191" spans="1:2">
+      <c r="A191" s="3">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="4">
+    <row r="192" spans="1:2">
+      <c r="A192" s="3">
         <v>191</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="4">
+    <row r="193" spans="1:2">
+      <c r="A193" s="3">
         <v>192</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="4">
+    <row r="194" spans="1:2">
+      <c r="A194" s="3">
         <v>193</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="4">
+    <row r="195" spans="1:2">
+      <c r="A195" s="3">
         <v>194</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="4">
+    <row r="196" spans="1:2">
+      <c r="A196" s="3">
         <v>195</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="4">
+    <row r="197" spans="1:2">
+      <c r="A197" s="3">
         <v>196</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="4">
+    <row r="198" spans="1:2">
+      <c r="A198" s="3">
         <v>197</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="4">
+    <row r="199" spans="1:2">
+      <c r="A199" s="3">
         <v>198</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="4">
+    <row r="200" spans="1:2">
+      <c r="A200" s="3">
         <v>199</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="4">
+    <row r="201" spans="1:2">
+      <c r="A201" s="3">
         <v>200</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="4">
+    <row r="202" spans="1:2">
+      <c r="A202" s="3">
         <v>201</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="4">
+    <row r="203" spans="1:2">
+      <c r="A203" s="3">
         <v>202</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="4">
+    <row r="204" spans="1:2">
+      <c r="A204" s="3">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="4">
+    <row r="205" spans="1:2">
+      <c r="A205" s="3">
         <v>204</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="4">
+    <row r="206" spans="1:2">
+      <c r="A206" s="3">
         <v>205</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="4">
+    <row r="207" spans="1:2">
+      <c r="A207" s="3">
         <v>206</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="4">
+    <row r="208" spans="1:2">
+      <c r="A208" s="3">
         <v>207</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="4">
+    <row r="209" spans="1:3">
+      <c r="A209" s="3">
         <v>208</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="4">
+    <row r="210" spans="1:3">
+      <c r="A210" s="3">
         <v>209</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="4">
+    <row r="211" spans="1:3">
+      <c r="A211" s="3">
         <v>210</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="4">
+    <row r="212" spans="1:3">
+      <c r="A212" s="3">
         <v>211</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="4">
+    <row r="213" spans="1:3">
+      <c r="A213" s="3">
         <v>212</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="4">
+    <row r="214" spans="1:3">
+      <c r="A214" s="3">
         <v>213</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="4">
+    <row r="215" spans="1:3">
+      <c r="A215" s="3">
         <v>214</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="4">
+    <row r="216" spans="1:3">
+      <c r="A216" s="3">
         <v>215</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C216" s="5" t="s">
+      <c r="C216" s="4"/>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="3">
+        <v>216</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="4">
-        <v>216</v>
-      </c>
-      <c r="B217" t="s">
+      <c r="C217" s="4"/>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="3">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C217" s="5" t="s">
+      <c r="C218" s="4"/>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="3">
+        <v>218</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="4">
-        <v>217</v>
-      </c>
-      <c r="B218" t="s">
+    <row r="220" spans="1:3">
+      <c r="A220" s="3">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C218" s="5" t="s">
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="3">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="4">
-        <v>218</v>
-      </c>
-      <c r="B219" t="s">
+    <row r="222" spans="1:3">
+      <c r="A222" s="3">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="4">
-        <v>219</v>
-      </c>
-      <c r="B220" t="s">
+    <row r="223" spans="1:3">
+      <c r="A223" s="3">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="4">
-        <v>220</v>
-      </c>
-      <c r="B221" t="s">
+    <row r="224" spans="1:3">
+      <c r="A224" s="3">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="4">
-        <v>221</v>
-      </c>
-      <c r="B222" t="s">
+    <row r="225" spans="1:2">
+      <c r="A225" s="3">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="4">
-        <v>222</v>
-      </c>
-      <c r="B223" t="s">
+    <row r="226" spans="1:2">
+      <c r="A226" s="3">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="4">
-        <v>223</v>
-      </c>
-      <c r="B224" t="s">
+    <row r="227" spans="1:2">
+      <c r="A227" s="3">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="4">
-        <v>224</v>
-      </c>
-      <c r="B225" t="s">
+    <row r="228" spans="1:2">
+      <c r="A228" s="3">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C225" t="s">
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="3">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="4">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="4">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="4">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="4">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="4">
+    <row r="230" spans="1:2">
+      <c r="A230" s="3">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="4">
+      <c r="B230" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="3">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="4">
+      <c r="B231" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="3">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="4">
+      <c r="B232" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="3">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="4">
+      <c r="B233" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="3">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="4">
+      <c r="B234" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="3">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="4">
+      <c r="B235" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="3">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="4">
+      <c r="B236" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="3">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="4">
+      <c r="B237" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="3">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="4">
+      <c r="B238" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="3">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="4">
+      <c r="B239" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="3">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="4">
+      <c r="B240" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="3">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="4">
+      <c r="B241" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="3">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="4">
+      <c r="B242" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="3">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" s="4">
+      <c r="B243" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="3">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" s="4">
+      <c r="B244" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="3">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" s="4">
+      <c r="B245" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="3">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="4">
+      <c r="B246" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="3">
         <v>246</v>
       </c>
+      <c r="B247" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="3">
+        <v>247</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="3">
+        <v>248</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C249" s="5"/>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="3">
+        <v>249</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C250" s="5"/>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="3">
+        <v>250</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C251" s="6"/>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="3">
+        <v>251</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="3">
+        <v>252</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="3">
+        <v>253</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="3">
+        <v>254</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="3">
+        <v>255</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="3">
+        <v>256</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="3">
+        <v>257</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="3">
+        <v>258</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="3">
+        <v>259</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="3">
+        <v>260</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="3">
+        <v>261</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="3">
+        <v>262</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="3">
+        <v>263</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="3">
+        <v>264</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="3">
+        <v>265</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="3">
+        <v>266</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="3">
+        <v>267</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="3">
+        <v>268</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="3">
+        <v>269</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="3">
+        <v>270</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="3">
+        <v>271</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="3">
+        <v>272</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="3">
+        <v>273</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="3">
+        <v>274</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="3">
+        <v>275</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="3">
+        <v>276</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="3">
+        <v>277</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="3">
+        <v>278</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="3">
+        <v>279</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="3">
+        <v>280</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="3">
+        <v>281</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="3">
+        <v>282</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="3">
+        <v>283</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="3">
+        <v>284</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="3">
+        <v>285</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="3">
+        <v>286</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="3">
+        <v>287</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="3">
+        <v>288</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="3">
+        <v>289</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="3">
+        <v>290</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="3">
+        <v>291</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="3">
+        <v>292</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="3">
+        <v>293</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="3">
+        <v>294</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="3">
+        <v>295</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="3">
+        <v>296</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="3">
+        <v>297</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="3">
+        <v>298</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="3">
+        <v>299</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="3">
+        <v>300</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="3">
+        <v>301</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="3">
+        <v>302</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="3">
+        <v>303</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="3">
+        <v>304</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="3">
+        <v>305</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="3">
+        <v>306</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="7"/>
+      <c r="B308" s="8"/>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="7"/>
+      <c r="B309" s="8"/>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="7"/>
+      <c r="B310" s="8"/>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="7"/>
+      <c r="B311" s="8"/>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="7"/>
+      <c r="B312" s="8"/>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="7"/>
+      <c r="B313" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
